--- a/db/pocino.xlsx
+++ b/db/pocino.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Irving, TX</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>06002</t>
+  </si>
+  <si>
+    <t>SuperValu</t>
+  </si>
+  <si>
+    <t>Trader</t>
   </si>
 </sst>
 </file>
@@ -445,96 +451,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>4</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>5</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>6</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>7</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>8</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>9</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>10</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>11</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>12</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>13</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>14</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>385</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>740</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1080</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -546,24 +551,24 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>375</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>720</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1035</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -575,24 +580,24 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>395</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>750</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>1080</v>
       </c>
-      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -604,24 +609,24 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>450</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>850</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>1195</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -633,24 +638,24 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>500</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>970</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1395</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -662,24 +667,24 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>575</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>1110</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1635</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -691,16 +696,14 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="1">
-        <v>300</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
@@ -709,7 +712,7 @@
         <v>300</v>
       </c>
       <c r="F8" s="1">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="G8" s="1">
         <v>315</v>
@@ -718,7 +721,7 @@
         <v>315</v>
       </c>
       <c r="I8" s="1">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J8" s="1">
         <v>325</v>
@@ -730,39 +733,41 @@
         <v>325</v>
       </c>
       <c r="M8" s="1">
+        <v>325</v>
+      </c>
+      <c r="N8" s="1">
         <v>355</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>365</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>380</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>395</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>495</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <v>620</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>735</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -773,18 +778,18 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>425</v>
       </c>
-      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -798,30 +803,30 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>345</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>465</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <v>590</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
         <v>695</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>785</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>875</v>
       </c>
-      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -830,23 +835,23 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>1580</v>
       </c>
-      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -855,21 +860,21 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
         <v>1260</v>
       </c>
-      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -880,33 +885,36 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="2">
+      <c r="C14" s="2">
         <v>95205</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>295</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>420</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>540</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>620</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>750</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>870</v>
       </c>
-      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -915,76 +923,79 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
+      <c r="C15" s="2">
         <v>96215</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>350</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>475</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <v>610</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="1">
         <v>725</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>815</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>895</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>945</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>995</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>1045</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>1090</v>
       </c>
-      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>345</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>465</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <v>590</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="1">
         <v>695</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>785</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>875</v>
       </c>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -993,33 +1004,33 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>345</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>465</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <v>590</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G17" s="1">
         <v>695</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>785</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>875</v>
       </c>
-      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1028,30 +1039,30 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>350</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>495</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <v>620</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G18" s="1">
         <v>735</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>815</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <v>905</v>
       </c>
-      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1060,33 +1071,33 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>350</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>495</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <v>620</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G19" s="1">
         <v>735</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>815</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>905</v>
       </c>
-      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1095,30 +1106,30 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>350</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>495</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <v>620</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G20" s="1">
         <v>735</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>815</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <v>905</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1127,6 +1138,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/pocino.xlsx
+++ b/db/pocino.xlsx
@@ -24,114 +24,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
-  <si>
-    <t>Irving, TX</t>
-  </si>
-  <si>
-    <t>Minooka, IL</t>
-  </si>
-  <si>
-    <t>Nazareth, PA</t>
-  </si>
-  <si>
-    <t>Bloomfield, CT</t>
-  </si>
-  <si>
-    <t>Daytona Beach, FL</t>
-  </si>
-  <si>
-    <t>Tracy, CA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>Santa Fe Springs, CA</t>
-  </si>
-  <si>
-    <t>Olympia, WA</t>
-  </si>
-  <si>
-    <t>Fort Worth, TX</t>
-  </si>
-  <si>
-    <t>Modesto, CA</t>
-  </si>
-  <si>
-    <t>Dallas, TX</t>
-  </si>
-  <si>
-    <t>Chicago, IL</t>
-  </si>
-  <si>
-    <t>Pleasant Grove, CA</t>
-  </si>
-  <si>
-    <t>Fremont, CA</t>
-  </si>
-  <si>
-    <t>Fairfield, CA</t>
-  </si>
-  <si>
-    <t>Manteca, CA</t>
-  </si>
-  <si>
-    <t>Milpitas, CA</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Stockton, CA</t>
-  </si>
-  <si>
-    <t>32117</t>
-  </si>
-  <si>
-    <t>18064</t>
-  </si>
-  <si>
-    <t>60447</t>
-  </si>
-  <si>
-    <t>75061</t>
-  </si>
-  <si>
-    <t>98516</t>
-  </si>
-  <si>
-    <t>90670</t>
-  </si>
-  <si>
-    <t>76140</t>
-  </si>
-  <si>
-    <t>95304</t>
-  </si>
-  <si>
-    <t>75244</t>
-  </si>
-  <si>
-    <t>60628</t>
-  </si>
-  <si>
-    <t>94538</t>
-  </si>
-  <si>
-    <t>95668</t>
-  </si>
-  <si>
-    <t>95336</t>
-  </si>
-  <si>
-    <t>06002</t>
-  </si>
-  <si>
-    <t>SuperValu</t>
-  </si>
-  <si>
-    <t>Trader</t>
+    <t>Olympia, WA 98516</t>
+  </si>
+  <si>
+    <t>Irving, TX 75061</t>
+  </si>
+  <si>
+    <t>Minooka, IL 60447</t>
+  </si>
+  <si>
+    <t>Nazareth, PA 18064</t>
+  </si>
+  <si>
+    <t>Bloomfield, CT 06002</t>
+  </si>
+  <si>
+    <t>Daytona Beach, FL 32117</t>
+  </si>
+  <si>
+    <t>Santa Fe Springs, CA 90670</t>
+  </si>
+  <si>
+    <t>Tracy, CA 95304</t>
+  </si>
+  <si>
+    <t>Fort Worth, TX 76140</t>
+  </si>
+  <si>
+    <t>Modesto, CA 95353</t>
+  </si>
+  <si>
+    <t>Dallas, TX 75244</t>
+  </si>
+  <si>
+    <t>Chicago, IL 60628</t>
+  </si>
+  <si>
+    <t>Stockton, CA 95205</t>
+  </si>
+  <si>
+    <t>Stockton, CA 96215</t>
+  </si>
+  <si>
+    <t>Fremont, CA 94538</t>
+  </si>
+  <si>
+    <t>Pleasant Grove, CA 95668</t>
+  </si>
+  <si>
+    <t>Fairfield, CA 94533</t>
+  </si>
+  <si>
+    <t>Manteca, CA 95336</t>
+  </si>
+  <si>
+    <t>Milpitas, CA 95035</t>
   </si>
 </sst>
 </file>
@@ -170,7 +122,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,95 +403,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1">
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>3</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>10</v>
-      </c>
-      <c r="N1">
-        <v>11</v>
-      </c>
-      <c r="O1">
-        <v>12</v>
-      </c>
-      <c r="P1">
-        <v>13</v>
-      </c>
-      <c r="Q1">
-        <v>14</v>
-      </c>
-      <c r="R1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
+      <c r="B2" s="1">
+        <v>385</v>
+      </c>
+      <c r="C2" s="1">
+        <v>740</v>
       </c>
       <c r="D2" s="1">
-        <v>385</v>
-      </c>
-      <c r="E2" s="1">
-        <v>740</v>
-      </c>
-      <c r="F2" s="1">
         <v>1080</v>
       </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -550,25 +495,22 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>375</v>
+      </c>
+      <c r="C3" s="1">
+        <v>720</v>
       </c>
       <c r="D3" s="1">
-        <v>375</v>
-      </c>
-      <c r="E3" s="1">
-        <v>720</v>
-      </c>
-      <c r="F3" s="1">
         <v>1035</v>
       </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -579,25 +521,22 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>395</v>
+      </c>
+      <c r="C4" s="1">
+        <v>750</v>
       </c>
       <c r="D4" s="1">
-        <v>395</v>
-      </c>
-      <c r="E4" s="1">
-        <v>750</v>
-      </c>
-      <c r="F4" s="1">
         <v>1080</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -608,25 +547,22 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>450</v>
+      </c>
+      <c r="C5" s="1">
+        <v>850</v>
       </c>
       <c r="D5" s="1">
-        <v>450</v>
-      </c>
-      <c r="E5" s="1">
-        <v>850</v>
-      </c>
-      <c r="F5" s="1">
         <v>1195</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -637,25 +573,22 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>970</v>
       </c>
       <c r="D6" s="1">
-        <v>500</v>
-      </c>
-      <c r="E6" s="1">
-        <v>970</v>
-      </c>
-      <c r="F6" s="1">
         <v>1395</v>
       </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -666,25 +599,22 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>575</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1110</v>
       </c>
       <c r="D7" s="1">
-        <v>575</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1110</v>
-      </c>
-      <c r="F7" s="1">
         <v>1635</v>
       </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -695,33 +625,34 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
+      <c r="B8" s="1">
+        <v>300</v>
+      </c>
+      <c r="C8" s="1">
+        <v>300</v>
       </c>
       <c r="D8" s="1">
         <v>300</v>
       </c>
       <c r="E8" s="1">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F8" s="1">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G8" s="1">
         <v>315</v>
       </c>
       <c r="H8" s="1">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="I8" s="1">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="J8" s="1">
         <v>325</v>
@@ -730,44 +661,37 @@
         <v>325</v>
       </c>
       <c r="L8" s="1">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="M8" s="1">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="N8" s="1">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="O8" s="1">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="P8" s="1">
-        <v>380</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>395</v>
-      </c>
-      <c r="R8" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>495</v>
+      </c>
+      <c r="D9" s="1">
+        <v>620</v>
+      </c>
       <c r="E9" s="1">
-        <v>495</v>
-      </c>
-      <c r="F9" s="1">
-        <v>620</v>
-      </c>
-      <c r="G9" s="1">
         <v>735</v>
       </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -777,19 +701,16 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="B10" s="1">
         <v>425</v>
       </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -802,31 +723,31 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="1">
+        <v>345</v>
+      </c>
+      <c r="C11" s="1">
+        <v>465</v>
+      </c>
       <c r="D11" s="1">
-        <v>345</v>
+        <v>590</v>
       </c>
       <c r="E11" s="1">
-        <v>465</v>
+        <v>695</v>
       </c>
       <c r="F11" s="1">
-        <v>590</v>
+        <v>785</v>
       </c>
       <c r="G11" s="1">
-        <v>695</v>
-      </c>
-      <c r="H11" s="1">
-        <v>785</v>
-      </c>
-      <c r="I11" s="1">
         <v>875</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -834,24 +755,21 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="1">
+        <v>1580</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1">
-        <v>1580</v>
-      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -859,22 +777,19 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1260</v>
+      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1">
-        <v>1260</v>
-      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -884,37 +799,31 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2">
-        <v>95205</v>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>295</v>
+      </c>
+      <c r="C14" s="1">
+        <v>420</v>
       </c>
       <c r="D14" s="1">
-        <v>295</v>
+        <v>540</v>
       </c>
       <c r="E14" s="1">
-        <v>420</v>
+        <v>620</v>
       </c>
       <c r="F14" s="1">
-        <v>540</v>
+        <v>750</v>
       </c>
       <c r="G14" s="1">
-        <v>620</v>
-      </c>
-      <c r="H14" s="1">
-        <v>750</v>
-      </c>
-      <c r="I14" s="1">
         <v>870</v>
       </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -922,80 +831,71 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="2">
-        <v>96215</v>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>350</v>
+      </c>
+      <c r="C15" s="1">
+        <v>475</v>
       </c>
       <c r="D15" s="1">
-        <v>350</v>
+        <v>610</v>
       </c>
       <c r="E15" s="1">
-        <v>475</v>
+        <v>725</v>
       </c>
       <c r="F15" s="1">
-        <v>610</v>
+        <v>815</v>
       </c>
       <c r="G15" s="1">
-        <v>725</v>
+        <v>895</v>
       </c>
       <c r="H15" s="1">
-        <v>815</v>
+        <v>945</v>
       </c>
       <c r="I15" s="1">
-        <v>895</v>
+        <v>995</v>
       </c>
       <c r="J15" s="1">
-        <v>945</v>
+        <v>1045</v>
       </c>
       <c r="K15" s="1">
-        <v>995</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1045</v>
-      </c>
-      <c r="M15" s="1">
         <v>1090</v>
       </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>345</v>
+      </c>
+      <c r="C16" s="1">
+        <v>465</v>
       </c>
       <c r="D16" s="1">
-        <v>345</v>
+        <v>590</v>
       </c>
       <c r="E16" s="1">
-        <v>465</v>
+        <v>695</v>
       </c>
       <c r="F16" s="1">
-        <v>590</v>
+        <v>785</v>
       </c>
       <c r="G16" s="1">
-        <v>695</v>
-      </c>
-      <c r="H16" s="1">
-        <v>785</v>
-      </c>
-      <c r="I16" s="1">
         <v>875</v>
       </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1003,34 +903,31 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>31</v>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>345</v>
+      </c>
+      <c r="C17" s="1">
+        <v>465</v>
       </c>
       <c r="D17" s="1">
-        <v>345</v>
+        <v>590</v>
       </c>
       <c r="E17" s="1">
-        <v>465</v>
+        <v>695</v>
       </c>
       <c r="F17" s="1">
-        <v>590</v>
+        <v>785</v>
       </c>
       <c r="G17" s="1">
-        <v>695</v>
-      </c>
-      <c r="H17" s="1">
-        <v>785</v>
-      </c>
-      <c r="I17" s="1">
         <v>875</v>
       </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1038,31 +935,31 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>15</v>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>350</v>
+      </c>
+      <c r="C18" s="1">
+        <v>495</v>
       </c>
       <c r="D18" s="1">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="E18" s="1">
-        <v>495</v>
+        <v>735</v>
       </c>
       <c r="F18" s="1">
-        <v>620</v>
+        <v>815</v>
       </c>
       <c r="G18" s="1">
-        <v>735</v>
-      </c>
-      <c r="H18" s="1">
-        <v>815</v>
-      </c>
-      <c r="I18" s="1">
         <v>905</v>
       </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1070,34 +967,31 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>32</v>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>350</v>
+      </c>
+      <c r="C19" s="1">
+        <v>495</v>
       </c>
       <c r="D19" s="1">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="E19" s="1">
-        <v>495</v>
+        <v>735</v>
       </c>
       <c r="F19" s="1">
-        <v>620</v>
+        <v>815</v>
       </c>
       <c r="G19" s="1">
-        <v>735</v>
-      </c>
-      <c r="H19" s="1">
-        <v>815</v>
-      </c>
-      <c r="I19" s="1">
         <v>905</v>
       </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1105,31 +999,31 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>17</v>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>350</v>
+      </c>
+      <c r="C20" s="1">
+        <v>495</v>
       </c>
       <c r="D20" s="1">
-        <v>350</v>
+        <v>620</v>
       </c>
       <c r="E20" s="1">
-        <v>495</v>
+        <v>735</v>
       </c>
       <c r="F20" s="1">
-        <v>620</v>
+        <v>815</v>
       </c>
       <c r="G20" s="1">
-        <v>735</v>
-      </c>
-      <c r="H20" s="1">
-        <v>815</v>
-      </c>
-      <c r="I20" s="1">
         <v>905</v>
       </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1137,8 +1031,6 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/pocino.xlsx
+++ b/db/pocino.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Destination</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Daytona Beach, FL 32117</t>
   </si>
   <si>
-    <t>Santa Fe Springs, CA 90670</t>
-  </si>
-  <si>
     <t>Tracy, CA 95304</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Milpitas, CA 95035</t>
+  </si>
+  <si>
+    <t>Boise, ID 83717</t>
+  </si>
+  <si>
+    <t>Loveland, CO 80538</t>
   </si>
 </sst>
 </file>
@@ -403,20 +406,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="3" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -475,13 +478,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="C2" s="1">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="D2" s="1">
-        <v>1080</v>
+        <v>1190</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -501,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="C3" s="1">
-        <v>720</v>
+        <v>805</v>
       </c>
       <c r="D3" s="1">
-        <v>1035</v>
+        <v>1340</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -527,13 +530,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="C4" s="1">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="D4" s="1">
-        <v>1080</v>
+        <v>1190</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -553,13 +556,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="C5" s="1">
-        <v>850</v>
+        <v>955</v>
       </c>
       <c r="D5" s="1">
-        <v>1195</v>
+        <v>1315</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -579,13 +582,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="C6" s="1">
-        <v>970</v>
+        <v>1085</v>
       </c>
       <c r="D6" s="1">
-        <v>1395</v>
+        <v>1535</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -605,13 +608,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>575</v>
+        <v>655</v>
       </c>
       <c r="C7" s="1">
-        <v>1110</v>
+        <v>1245</v>
       </c>
       <c r="D7" s="1">
-        <v>1635</v>
+        <v>1790</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -631,65 +634,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="C8" s="1">
-        <v>300</v>
+        <v>530</v>
       </c>
       <c r="D8" s="1">
-        <v>300</v>
+        <v>665</v>
       </c>
       <c r="E8" s="1">
-        <v>315</v>
+        <v>785</v>
       </c>
       <c r="F8" s="1">
-        <v>315</v>
-      </c>
-      <c r="G8" s="1">
-        <v>315</v>
-      </c>
-      <c r="H8" s="1">
-        <v>325</v>
-      </c>
-      <c r="I8" s="1">
-        <v>325</v>
-      </c>
-      <c r="J8" s="1">
-        <v>325</v>
-      </c>
-      <c r="K8" s="1">
-        <v>325</v>
-      </c>
-      <c r="L8" s="1">
-        <v>355</v>
-      </c>
-      <c r="M8" s="1">
-        <v>365</v>
-      </c>
-      <c r="N8" s="1">
-        <v>380</v>
-      </c>
-      <c r="O8" s="1">
-        <v>395</v>
-      </c>
-      <c r="P8" s="1">
-        <v>410</v>
-      </c>
+        <v>880</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>495</v>
-      </c>
-      <c r="D9" s="1">
-        <v>620</v>
-      </c>
-      <c r="E9" s="1">
-        <v>735</v>
-      </c>
+      <c r="B9" s="1">
+        <v>485</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -707,13 +686,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>425</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>395</v>
+      </c>
+      <c r="C10" s="1">
+        <v>530</v>
+      </c>
+      <c r="D10" s="1">
+        <v>665</v>
+      </c>
+      <c r="E10" s="1">
+        <v>785</v>
+      </c>
+      <c r="F10" s="1">
+        <v>880</v>
+      </c>
+      <c r="G10" s="1">
+        <v>980</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -728,23 +717,13 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>345</v>
-      </c>
-      <c r="C11" s="1">
-        <v>465</v>
-      </c>
-      <c r="D11" s="1">
-        <v>590</v>
-      </c>
-      <c r="E11" s="1">
-        <v>695</v>
-      </c>
-      <c r="F11" s="1">
-        <v>785</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>875</v>
+        <v>1800</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -763,11 +742,11 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1435</v>
+      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <v>1580</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -782,14 +761,24 @@
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="1">
+        <v>335</v>
+      </c>
+      <c r="C13" s="1">
+        <v>480</v>
+      </c>
+      <c r="D13" s="1">
+        <v>610</v>
+      </c>
       <c r="E13" s="1">
-        <v>1260</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+        <v>700</v>
+      </c>
+      <c r="F13" s="1">
+        <v>840</v>
+      </c>
+      <c r="G13" s="1">
+        <v>975</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -805,27 +794,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>295</v>
+        <v>400</v>
       </c>
       <c r="C14" s="1">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="D14" s="1">
-        <v>540</v>
+        <v>690</v>
       </c>
       <c r="E14" s="1">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="F14" s="1">
-        <v>750</v>
+        <v>910</v>
       </c>
       <c r="G14" s="1">
-        <v>870</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1050</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1105</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1150</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1200</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -837,35 +834,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="C15" s="1">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="D15" s="1">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="E15" s="1">
-        <v>725</v>
+        <v>785</v>
       </c>
       <c r="F15" s="1">
-        <v>815</v>
+        <v>880</v>
       </c>
       <c r="G15" s="1">
-        <v>895</v>
-      </c>
-      <c r="H15" s="1">
-        <v>945</v>
-      </c>
-      <c r="I15" s="1">
-        <v>995</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1045</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1090</v>
-      </c>
+        <v>980</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -877,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>345</v>
+        <v>395</v>
       </c>
       <c r="C16" s="1">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="D16" s="1">
-        <v>590</v>
+        <v>665</v>
       </c>
       <c r="E16" s="1">
-        <v>695</v>
+        <v>785</v>
       </c>
       <c r="F16" s="1">
-        <v>785</v>
+        <v>880</v>
       </c>
       <c r="G16" s="1">
-        <v>875</v>
+        <v>980</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -909,22 +898,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>345</v>
+        <v>400</v>
       </c>
       <c r="C17" s="1">
-        <v>465</v>
+        <v>565</v>
       </c>
       <c r="D17" s="1">
-        <v>590</v>
+        <v>705</v>
       </c>
       <c r="E17" s="1">
-        <v>695</v>
+        <v>835</v>
       </c>
       <c r="F17" s="1">
-        <v>785</v>
+        <v>930</v>
       </c>
       <c r="G17" s="1">
-        <v>875</v>
+        <v>1030</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -941,22 +930,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C18" s="1">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="D18" s="1">
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="E18" s="1">
-        <v>735</v>
+        <v>835</v>
       </c>
       <c r="F18" s="1">
-        <v>815</v>
+        <v>930</v>
       </c>
       <c r="G18" s="1">
-        <v>905</v>
+        <v>1030</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -973,22 +962,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="C19" s="1">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="D19" s="1">
-        <v>620</v>
+        <v>705</v>
       </c>
       <c r="E19" s="1">
-        <v>735</v>
+        <v>835</v>
       </c>
       <c r="F19" s="1">
-        <v>815</v>
+        <v>930</v>
       </c>
       <c r="G19" s="1">
-        <v>905</v>
+        <v>1030</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1004,33 +993,17 @@
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>350</v>
-      </c>
       <c r="C20" s="1">
-        <v>495</v>
-      </c>
-      <c r="D20" s="1">
-        <v>620</v>
-      </c>
-      <c r="E20" s="1">
-        <v>735</v>
-      </c>
-      <c r="F20" s="1">
-        <v>815</v>
-      </c>
-      <c r="G20" s="1">
-        <v>905</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>540</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/pocino.xlsx
+++ b/db/pocino.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WPy64-3741\notebooks\spyder\tms-load-robot\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daigo\Documents\WinPython\dev\tms-load-robot\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Destination</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Loveland, CO 80538</t>
+  </si>
+  <si>
+    <t>Riverside, CA 92508</t>
+  </si>
+  <si>
+    <t>Tacoma, WA 98424</t>
   </si>
 </sst>
 </file>
@@ -102,12 +108,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,10 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection sqref="A1:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,11 +432,9 @@
     <col min="3" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,28 +468,13 @@
       <c r="K1">
         <v>10</v>
       </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>12</v>
-      </c>
-      <c r="N1">
-        <v>13</v>
-      </c>
-      <c r="O1">
-        <v>14</v>
-      </c>
-      <c r="P1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C2" s="1">
         <v>830</v>
@@ -493,24 +489,19 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1">
-        <v>805</v>
+        <v>680</v>
       </c>
       <c r="D3" s="1">
-        <v>1340</v>
+        <v>1020</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -519,13 +510,8 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -545,24 +531,19 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C5" s="1">
-        <v>955</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="1">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -571,24 +552,19 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>570</v>
+        <v>500</v>
       </c>
       <c r="C6" s="1">
-        <v>1085</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="1">
-        <v>1535</v>
+        <v>1480</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -597,24 +573,19 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>655</v>
+        <v>520</v>
       </c>
       <c r="C7" s="1">
-        <v>1245</v>
+        <v>1040</v>
       </c>
       <c r="D7" s="1">
-        <v>1790</v>
+        <v>1560</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -623,13 +594,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -642,10 +608,10 @@
       <c r="D8" s="1">
         <v>665</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="3">
         <v>785</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="3">
         <v>880</v>
       </c>
       <c r="G8" s="1"/>
@@ -653,21 +619,20 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>485</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>865</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1300</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -675,13 +640,8 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -689,60 +649,62 @@
         <v>395</v>
       </c>
       <c r="C10" s="1">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D10" s="1">
-        <v>665</v>
-      </c>
-      <c r="E10" s="1">
+        <v>690</v>
+      </c>
+      <c r="E10" s="3">
         <v>785</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="3">
         <v>880</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="3">
         <v>980</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="1">
+        <v>485</v>
+      </c>
+      <c r="C11" s="1">
+        <v>825</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1125</v>
+      </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1">
+      <c r="G11" s="3">
         <v>1800</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="B12" s="1">
+        <v>475</v>
+      </c>
+      <c r="C12" s="1">
+        <v>850</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1190</v>
+      </c>
+      <c r="E12" s="3">
         <v>1435</v>
       </c>
       <c r="F12" s="1"/>
@@ -751,18 +713,13 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="C13" s="1">
         <v>480</v>
@@ -770,66 +727,56 @@
       <c r="D13" s="1">
         <v>610</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="3">
         <v>700</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="3">
         <v>840</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="3">
         <v>975</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C14" s="1">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="D14" s="1">
         <v>690</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="3">
         <v>820</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="3">
         <v>910</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>1050</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>1105</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="3">
         <v>1150</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <v>1200</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -842,26 +789,21 @@
       <c r="D15" s="1">
         <v>665</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="3">
         <v>785</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="3">
         <v>880</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="3">
         <v>980</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -874,138 +816,159 @@
       <c r="D16" s="1">
         <v>665</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="3">
         <v>785</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="3">
         <v>880</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="3">
         <v>980</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C17" s="1">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D17" s="1">
-        <v>705</v>
-      </c>
-      <c r="E17" s="1">
+        <v>690</v>
+      </c>
+      <c r="E17" s="3">
         <v>835</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="3">
         <v>930</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="3">
         <v>1030</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C18" s="1">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D18" s="1">
-        <v>705</v>
-      </c>
-      <c r="E18" s="1">
+        <v>690</v>
+      </c>
+      <c r="E18" s="3">
         <v>835</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="3">
         <v>930</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="3">
         <v>1030</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C19" s="1">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="D19" s="1">
-        <v>705</v>
-      </c>
-      <c r="E19" s="1">
+        <v>690</v>
+      </c>
+      <c r="E19" s="3">
         <v>835</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="3">
         <v>930</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="3">
         <v>1030</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B20" s="1">
+        <v>595</v>
+      </c>
       <c r="C20" s="1">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1075</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>540</v>
+        <v>450</v>
+      </c>
+      <c r="C21" s="1">
+        <v>770</v>
+      </c>
+      <c r="D21" s="1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>500</v>
+      </c>
+      <c r="C22" s="1">
+        <v>500</v>
+      </c>
+      <c r="D22" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>425</v>
+      </c>
+      <c r="C23" s="1">
+        <v>700</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>